--- a/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота біграм без пробілів.xlsx
+++ b/cp1/FB-05 Sapozhnyk, FB-05 Karas lab 1/Частота біграм без пробілів.xlsx
@@ -582,91 +582,91 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0003</v>
+        <v>0.00023</v>
       </c>
       <c r="C2">
-        <v>0.00165</v>
+        <v>0.00196</v>
       </c>
       <c r="D2">
-        <v>0.00405</v>
+        <v>0.00524</v>
       </c>
       <c r="E2">
-        <v>0.0024</v>
+        <v>0.00139</v>
       </c>
       <c r="F2">
-        <v>0.0039</v>
+        <v>0.00316</v>
       </c>
       <c r="G2">
-        <v>0.00225</v>
+        <v>0.00149</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0003</v>
+        <v>0.00042</v>
       </c>
       <c r="J2">
-        <v>0.0015</v>
+        <v>0.00147</v>
       </c>
       <c r="K2">
-        <v>0.00541</v>
+        <v>0.00436</v>
       </c>
       <c r="L2">
-        <v>0.0018</v>
+        <v>0.00104</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0003</v>
+        <v>0.00104</v>
       </c>
       <c r="O2">
-        <v>0.00721</v>
+        <v>0.00565</v>
       </c>
       <c r="P2">
-        <v>0.01021</v>
+        <v>0.01051</v>
       </c>
       <c r="Q2">
-        <v>0.00511</v>
+        <v>0.00486</v>
       </c>
       <c r="R2">
-        <v>0.00451</v>
+        <v>0.00671</v>
       </c>
       <c r="S2">
-        <v>0.00135</v>
+        <v>0.0011</v>
       </c>
       <c r="T2">
-        <v>0.0027</v>
+        <v>0.00349</v>
       </c>
       <c r="U2">
-        <v>0.00466</v>
+        <v>0.0034</v>
       </c>
       <c r="V2">
-        <v>0.00511</v>
+        <v>0.00624</v>
       </c>
       <c r="W2">
-        <v>0.00571</v>
+        <v>0.00681</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00063</v>
       </c>
       <c r="Y2">
-        <v>0.0005999999999999999</v>
+        <v>0.00017</v>
       </c>
       <c r="Z2">
-        <v>0.0015</v>
+        <v>0.00125</v>
       </c>
       <c r="AA2">
-        <v>0.00015</v>
+        <v>0.00036</v>
       </c>
       <c r="AB2">
-        <v>0.00135</v>
+        <v>0.00153</v>
       </c>
       <c r="AC2">
-        <v>0.00045</v>
+        <v>0.00128</v>
       </c>
       <c r="AD2">
-        <v>0.0003</v>
+        <v>0.00044</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.00135</v>
+        <v>0.00113</v>
       </c>
       <c r="AH2">
-        <v>0.00255</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0012</v>
+        <v>0.00088</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="G3">
-        <v>0.00105</v>
+        <v>0.002</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L3">
-        <v>0.0012</v>
+        <v>0.00111</v>
       </c>
       <c r="M3">
-        <v>0.00496</v>
+        <v>0.00355</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0005999999999999999</v>
+        <v>0.00022</v>
       </c>
       <c r="P3">
-        <v>0.00255</v>
+        <v>0.00125</v>
       </c>
       <c r="Q3">
-        <v>0.00015</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="R3">
-        <v>0.00015</v>
+        <v>0.00047</v>
       </c>
       <c r="S3">
-        <v>0.00436</v>
+        <v>0.0026</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U3">
-        <v>0.0021</v>
+        <v>0.00152</v>
       </c>
       <c r="V3">
-        <v>0.00015</v>
+        <v>0.00016</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="X3">
-        <v>0.0009</v>
+        <v>0.00124</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AH3">
-        <v>0.0003</v>
+        <v>0.00067</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00631</v>
+        <v>0.00677</v>
       </c>
       <c r="C4">
-        <v>0.00105</v>
+        <v>0.00025</v>
       </c>
       <c r="D4">
-        <v>0.00045</v>
+        <v>0.00042</v>
       </c>
       <c r="E4">
+        <v>0.00029</v>
+      </c>
+      <c r="F4">
+        <v>0.00058</v>
+      </c>
+      <c r="G4">
+        <v>0.00565</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.00021</v>
+      </c>
+      <c r="J4">
+        <v>6E-05</v>
+      </c>
+      <c r="K4">
         <v>0.0009</v>
       </c>
-      <c r="F4">
-        <v>0.00105</v>
-      </c>
-      <c r="G4">
-        <v>0.00736</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.0003</v>
-      </c>
-      <c r="J4">
-        <v>0.00015</v>
-      </c>
-      <c r="K4">
-        <v>0.0003</v>
-      </c>
       <c r="L4">
-        <v>0.0042</v>
+        <v>0.00384</v>
       </c>
       <c r="M4">
-        <v>0.0024</v>
+        <v>0.00348</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0012</v>
+        <v>0.00101</v>
       </c>
       <c r="P4">
-        <v>0.00045</v>
+        <v>0.00095</v>
       </c>
       <c r="Q4">
-        <v>0.0005999999999999999</v>
+        <v>0.00046</v>
       </c>
       <c r="R4">
-        <v>0.00195</v>
+        <v>0.00172</v>
       </c>
       <c r="S4">
-        <v>0.00631</v>
+        <v>0.00714</v>
       </c>
       <c r="T4">
-        <v>0.00105</v>
+        <v>0.00112</v>
       </c>
       <c r="U4">
-        <v>0.0012</v>
+        <v>0.00103</v>
       </c>
       <c r="V4">
-        <v>0.00285</v>
+        <v>0.00345</v>
       </c>
       <c r="W4">
-        <v>0.0003</v>
+        <v>0.00076</v>
       </c>
       <c r="X4">
-        <v>0.0003</v>
+        <v>0.00091</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="Z4">
-        <v>0.00045</v>
+        <v>0.00012</v>
       </c>
       <c r="AA4">
-        <v>0.00015</v>
+        <v>6E-05</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="AC4">
-        <v>0.0012</v>
+        <v>0.00072</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AG4">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00015</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,37 +894,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0012</v>
+        <v>0.00147</v>
       </c>
       <c r="C5">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F5">
-        <v>0.0015</v>
+        <v>0.00122</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="L5">
-        <v>0.00165</v>
+        <v>0.00092</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -933,49 +933,49 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0003</v>
+        <v>0.00021</v>
       </c>
       <c r="P5">
-        <v>0.00135</v>
+        <v>0.00186</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="R5">
-        <v>0.00045</v>
+        <v>0.00054</v>
       </c>
       <c r="S5">
-        <v>0.01066</v>
+        <v>0.00695</v>
       </c>
       <c r="T5">
-        <v>0.0005999999999999999</v>
+        <v>0.00013</v>
       </c>
       <c r="U5">
-        <v>0.00165</v>
+        <v>0.00124</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="W5">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="X5">
-        <v>0.0015</v>
+        <v>0.00065</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00015</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AC5">
-        <v>0.00015</v>
+        <v>1E-05</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.00526</v>
+        <v>0.00534</v>
       </c>
       <c r="C6">
-        <v>0.00015</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="D6">
-        <v>0.00225</v>
+        <v>0.00154</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F6">
-        <v>0.0003</v>
+        <v>0.00012</v>
       </c>
       <c r="G6">
-        <v>0.00646</v>
+        <v>0.00547</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="J6">
-        <v>0.0015</v>
+        <v>0.00037</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L6">
-        <v>0.00345</v>
+        <v>0.00293</v>
       </c>
       <c r="M6">
-        <v>0.0003</v>
+        <v>0.00068</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00045</v>
+        <v>0.00036</v>
       </c>
       <c r="P6">
-        <v>0.00195</v>
+        <v>0.00085</v>
       </c>
       <c r="Q6">
-        <v>0.00015</v>
+        <v>0.00011</v>
       </c>
       <c r="R6">
-        <v>0.0021</v>
+        <v>0.00204</v>
       </c>
       <c r="S6">
-        <v>0.0036</v>
+        <v>0.00478</v>
       </c>
       <c r="T6">
-        <v>0.00015</v>
+        <v>0.00027</v>
       </c>
       <c r="U6">
-        <v>0.0012</v>
+        <v>0.00114</v>
       </c>
       <c r="V6">
-        <v>0.00075</v>
+        <v>0.00043</v>
       </c>
       <c r="W6">
-        <v>0.0003</v>
+        <v>0.00018</v>
       </c>
       <c r="X6">
-        <v>0.00195</v>
+        <v>0.00193</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AA6">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="AB6">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AF6">
-        <v>0.00015</v>
+        <v>0.00051</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AH6">
-        <v>0.00075</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,91 +1102,91 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="C7">
-        <v>0.0018</v>
+        <v>0.00222</v>
       </c>
       <c r="D7">
-        <v>0.00436</v>
+        <v>0.00329</v>
       </c>
       <c r="E7">
-        <v>0.00436</v>
+        <v>0.00347</v>
       </c>
       <c r="F7">
-        <v>0.00436</v>
+        <v>0.00427</v>
       </c>
       <c r="G7">
-        <v>0.00075</v>
+        <v>0.00146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00015</v>
+        <v>0.00035</v>
       </c>
       <c r="J7">
-        <v>0.00075</v>
+        <v>0.00106</v>
       </c>
       <c r="K7">
-        <v>0.00195</v>
+        <v>0.0023</v>
       </c>
       <c r="L7">
-        <v>0.00135</v>
+        <v>0.00105</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.0024</v>
+        <v>0.00217</v>
       </c>
       <c r="O7">
-        <v>0.00285</v>
+        <v>0.00231</v>
       </c>
       <c r="P7">
-        <v>0.00646</v>
+        <v>0.00672</v>
       </c>
       <c r="Q7">
-        <v>0.00571</v>
+        <v>0.00533</v>
       </c>
       <c r="R7">
-        <v>0.01201</v>
+        <v>0.01064</v>
       </c>
       <c r="S7">
-        <v>0.00135</v>
+        <v>0.00162</v>
       </c>
       <c r="T7">
-        <v>0.0036</v>
+        <v>0.00383</v>
       </c>
       <c r="U7">
-        <v>0.01066</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="V7">
-        <v>0.00616</v>
+        <v>0.00688</v>
       </c>
       <c r="W7">
-        <v>0.00886</v>
+        <v>0.00665</v>
       </c>
       <c r="X7">
-        <v>0.00075</v>
+        <v>0.00077</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Z7">
-        <v>0.0005999999999999999</v>
+        <v>0.00088</v>
       </c>
       <c r="AA7">
-        <v>0.0005999999999999999</v>
+        <v>0.00041</v>
       </c>
       <c r="AB7">
-        <v>0.00105</v>
+        <v>0.00165</v>
       </c>
       <c r="AC7">
-        <v>0.0009</v>
+        <v>0.00124</v>
       </c>
       <c r="AD7">
-        <v>0.00075</v>
+        <v>0.00084</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.00019</v>
       </c>
       <c r="AH7">
-        <v>0.00045</v>
+        <v>0.00074</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1346,43 +1346,43 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="P9">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="R9">
-        <v>0.00045</v>
+        <v>5E-05</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="W9">
-        <v>0.00225</v>
+        <v>0.0026</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1414,37 +1414,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0009</v>
+        <v>0.00171</v>
       </c>
       <c r="C10">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F10">
-        <v>0.00105</v>
+        <v>0.00091</v>
       </c>
       <c r="G10">
-        <v>0.00436</v>
+        <v>0.0036</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="L10">
-        <v>0.0021</v>
+        <v>0.00176</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1453,46 +1453,46 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0003</v>
+        <v>0.00018</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="R10">
-        <v>0.00075</v>
+        <v>0.00113</v>
       </c>
       <c r="S10">
-        <v>0.00075</v>
+        <v>6E-05</v>
       </c>
       <c r="T10">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="X10">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.00015</v>
+        <v>2E-05</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1518,103 +1518,103 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.00526</v>
+        <v>0.00687</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="D11">
-        <v>0.00105</v>
+        <v>0.00108</v>
       </c>
       <c r="E11">
-        <v>0.00075</v>
+        <v>0.00056</v>
       </c>
       <c r="F11">
-        <v>0.00015</v>
+        <v>0.00118</v>
       </c>
       <c r="G11">
-        <v>0.0009</v>
+        <v>0.00056</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="J11">
-        <v>0.00015</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="L11">
-        <v>0.0003</v>
+        <v>0.00067</v>
       </c>
       <c r="M11">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.00015</v>
+        <v>0.00032</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.00037</v>
       </c>
       <c r="Q11">
-        <v>0.0005999999999999999</v>
+        <v>0.00065</v>
       </c>
       <c r="R11">
-        <v>0.0024</v>
+        <v>0.00197</v>
       </c>
       <c r="S11">
-        <v>0.0009</v>
+        <v>0.00099</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.00041</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="X11">
-        <v>0.00075</v>
+        <v>0.0007</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AF11">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.00015</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1622,91 +1622,91 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="C12">
-        <v>0.00195</v>
+        <v>0.00144</v>
       </c>
       <c r="D12">
-        <v>0.00451</v>
+        <v>0.00443</v>
       </c>
       <c r="E12">
-        <v>0.00135</v>
+        <v>0.00122</v>
       </c>
       <c r="F12">
-        <v>0.00481</v>
+        <v>0.00247</v>
       </c>
       <c r="G12">
-        <v>0.0024</v>
+        <v>0.00251</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00015</v>
+        <v>0.00024</v>
       </c>
       <c r="J12">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="K12">
-        <v>0.0033</v>
+        <v>0.00348</v>
       </c>
       <c r="L12">
-        <v>0.0015</v>
+        <v>0.00167</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.0021</v>
+        <v>0.00104</v>
       </c>
       <c r="O12">
-        <v>0.00436</v>
+        <v>0.00361</v>
       </c>
       <c r="P12">
-        <v>0.00481</v>
+        <v>0.00624</v>
       </c>
       <c r="Q12">
-        <v>0.0036</v>
+        <v>0.00404</v>
       </c>
       <c r="R12">
-        <v>0.00706</v>
+        <v>0.00567</v>
       </c>
       <c r="S12">
-        <v>0.00135</v>
+        <v>0.00167</v>
       </c>
       <c r="T12">
-        <v>0.0036</v>
+        <v>0.00271</v>
       </c>
       <c r="U12">
-        <v>0.00135</v>
+        <v>0.00175</v>
       </c>
       <c r="V12">
-        <v>0.00526</v>
+        <v>0.00511</v>
       </c>
       <c r="W12">
-        <v>0.00436</v>
+        <v>0.00555</v>
       </c>
       <c r="X12">
-        <v>0.00105</v>
+        <v>0.00062</v>
       </c>
       <c r="Y12">
         <v>0.00015</v>
       </c>
       <c r="Z12">
-        <v>0.00165</v>
+        <v>0.00188</v>
       </c>
       <c r="AA12">
-        <v>0.00135</v>
+        <v>0.00115</v>
       </c>
       <c r="AB12">
-        <v>0.00135</v>
+        <v>0.00158</v>
       </c>
       <c r="AC12">
-        <v>0.00105</v>
+        <v>0.00088</v>
       </c>
       <c r="AD12">
-        <v>0.00015</v>
+        <v>0.00022</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0.00045</v>
+        <v>0.00036</v>
       </c>
       <c r="AH12">
-        <v>0.0005999999999999999</v>
+        <v>0.00227</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1726,91 +1726,91 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.00015</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="C13">
+        <v>0.00056</v>
+      </c>
+      <c r="D13">
+        <v>0.00167</v>
+      </c>
+      <c r="E13">
+        <v>0.00029</v>
+      </c>
+      <c r="F13">
         <v>0.00045</v>
       </c>
-      <c r="D13">
-        <v>0.0018</v>
-      </c>
-      <c r="E13">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.0005999999999999999</v>
-      </c>
       <c r="G13">
-        <v>0.0012</v>
+        <v>0.00138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="J13">
-        <v>0.00015</v>
+        <v>0.00011</v>
       </c>
       <c r="K13">
-        <v>0.0003</v>
+        <v>0.00033</v>
       </c>
       <c r="L13">
-        <v>0.00045</v>
+        <v>0.00054</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.00165</v>
+        <v>0.00172</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.00046</v>
       </c>
       <c r="P13">
-        <v>0.00405</v>
+        <v>0.00233</v>
       </c>
       <c r="Q13">
-        <v>0.0021</v>
+        <v>0.00147</v>
       </c>
       <c r="R13">
-        <v>0.00015</v>
+        <v>0.00086</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.00044</v>
       </c>
       <c r="T13">
-        <v>0.0005999999999999999</v>
+        <v>0.00109</v>
       </c>
       <c r="U13">
-        <v>0.00015</v>
+        <v>0.00048</v>
       </c>
       <c r="V13">
-        <v>0.00045</v>
+        <v>0.00156</v>
       </c>
       <c r="W13">
-        <v>0.0003</v>
+        <v>0.00112</v>
       </c>
       <c r="X13">
-        <v>0.00045</v>
+        <v>0.00024</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="Z13">
-        <v>0.0018</v>
+        <v>0.00119</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.00015</v>
+        <v>0.00035</v>
       </c>
       <c r="AC13">
-        <v>0.0005999999999999999</v>
+        <v>0.00067</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1830,37 +1830,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="C14">
-        <v>0.00045</v>
+        <v>0.00027</v>
       </c>
       <c r="D14">
-        <v>0.0009</v>
+        <v>0.00063</v>
       </c>
       <c r="E14">
-        <v>0.0005999999999999999</v>
+        <v>0.00022</v>
       </c>
       <c r="F14">
-        <v>0.00075</v>
+        <v>0.00067</v>
       </c>
       <c r="G14">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="J14">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
       <c r="K14">
-        <v>0.00015</v>
+        <v>0.0002</v>
       </c>
       <c r="L14">
-        <v>0.0003</v>
+        <v>0.00039</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1869,52 +1869,52 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.00105</v>
+        <v>0.00078</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="Q14">
-        <v>0.00105</v>
+        <v>0.00053</v>
       </c>
       <c r="R14">
-        <v>0.0009</v>
+        <v>0.00081</v>
       </c>
       <c r="S14">
-        <v>0.0003</v>
+        <v>0.00049</v>
       </c>
       <c r="T14">
-        <v>0.00135</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="U14">
-        <v>0.00045</v>
+        <v>0.00029</v>
       </c>
       <c r="V14">
-        <v>0.00135</v>
+        <v>0.00144</v>
       </c>
       <c r="W14">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="Y14">
-        <v>0.0003</v>
+        <v>0.00012</v>
       </c>
       <c r="Z14">
-        <v>0.00015</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AB14">
-        <v>0.00015</v>
+        <v>0.00035</v>
       </c>
       <c r="AC14">
-        <v>0.0003</v>
+        <v>0.00019</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0.00045</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -1934,103 +1934,103 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01111</v>
+        <v>0.0081</v>
       </c>
       <c r="C15">
+        <v>0.00019</v>
+      </c>
+      <c r="D15">
+        <v>0.00058</v>
+      </c>
+      <c r="E15">
+        <v>0.00011</v>
+      </c>
+      <c r="F15">
+        <v>0.00021</v>
+      </c>
+      <c r="G15">
+        <v>0.00078</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>6.999999999999999E-05</v>
+      </c>
+      <c r="J15">
+        <v>6.999999999999999E-05</v>
+      </c>
+      <c r="K15">
+        <v>0.00018</v>
+      </c>
+      <c r="L15">
+        <v>0.00359</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0.0003</v>
       </c>
-      <c r="D15">
-        <v>0.00075</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.0003</v>
-      </c>
-      <c r="G15">
-        <v>0.0027</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="P15">
+        <v>0.001</v>
+      </c>
+      <c r="Q15">
+        <v>0.00023</v>
+      </c>
+      <c r="R15">
+        <v>0.00119</v>
+      </c>
+      <c r="S15">
+        <v>0.00949</v>
+      </c>
+      <c r="T15">
+        <v>0.00039</v>
+      </c>
+      <c r="U15">
+        <v>0.00252</v>
+      </c>
+      <c r="V15">
+        <v>0.00068</v>
+      </c>
+      <c r="W15">
+        <v>0.00129</v>
+      </c>
+      <c r="X15">
+        <v>0.00244</v>
+      </c>
+      <c r="Y15">
+        <v>3E-05</v>
+      </c>
+      <c r="Z15">
+        <v>2E-05</v>
+      </c>
+      <c r="AA15">
+        <v>5E-05</v>
+      </c>
+      <c r="AB15">
+        <v>0.00026</v>
+      </c>
+      <c r="AC15">
+        <v>3E-05</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1E-05</v>
+      </c>
+      <c r="AG15">
+        <v>1E-05</v>
+      </c>
+      <c r="AH15">
         <v>0.00015</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.00631</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0.00015</v>
-      </c>
-      <c r="P15">
-        <v>0.0012</v>
-      </c>
-      <c r="Q15">
-        <v>0.00015</v>
-      </c>
-      <c r="R15">
-        <v>0.00105</v>
-      </c>
-      <c r="S15">
-        <v>0.01111</v>
-      </c>
-      <c r="T15">
-        <v>0.0003</v>
-      </c>
-      <c r="U15">
-        <v>0.00195</v>
-      </c>
-      <c r="V15">
-        <v>0.0009</v>
-      </c>
-      <c r="W15">
-        <v>0.00105</v>
-      </c>
-      <c r="X15">
-        <v>0.00165</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0.0003</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0.00015</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2038,103 +2038,103 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.00616</v>
+        <v>0.00611</v>
       </c>
       <c r="C16">
-        <v>0.00015</v>
+        <v>0.00024</v>
       </c>
       <c r="D16">
-        <v>0.00105</v>
+        <v>0.00095</v>
       </c>
       <c r="E16">
+        <v>0.0004</v>
+      </c>
+      <c r="F16">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="F16">
-        <v>0.00045</v>
-      </c>
       <c r="G16">
-        <v>0.00721</v>
+        <v>0.00548</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="J16">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
       <c r="K16">
-        <v>0.0005999999999999999</v>
+        <v>0.00031</v>
       </c>
       <c r="L16">
-        <v>0.00781</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="M16">
-        <v>0.0009</v>
+        <v>0.00081</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0009</v>
+        <v>0.00117</v>
       </c>
       <c r="P16">
-        <v>0.00105</v>
+        <v>0.00035</v>
       </c>
       <c r="Q16">
-        <v>0.0003</v>
+        <v>0.00058</v>
       </c>
       <c r="R16">
-        <v>0.0012</v>
+        <v>0.00161</v>
       </c>
       <c r="S16">
-        <v>0.00886</v>
+        <v>0.00719</v>
       </c>
       <c r="T16">
-        <v>0.0005999999999999999</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="U16">
-        <v>0.00015</v>
+        <v>0.00022</v>
       </c>
       <c r="V16">
-        <v>0.0027</v>
+        <v>0.00373</v>
       </c>
       <c r="W16">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
       <c r="X16">
-        <v>0.00165</v>
+        <v>0.00175</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="Z16">
-        <v>0.00015</v>
+        <v>2E-05</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AB16">
-        <v>0.0009</v>
+        <v>0.00055</v>
       </c>
       <c r="AC16">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0.00496</v>
+        <v>0.00484</v>
       </c>
       <c r="AG16">
-        <v>0.00045</v>
+        <v>0.00112</v>
       </c>
       <c r="AH16">
-        <v>0.00285</v>
+        <v>0.00266</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2142,103 +2142,103 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0039</v>
+        <v>0.00311</v>
       </c>
       <c r="C17">
-        <v>0.0003</v>
+        <v>0.00035</v>
       </c>
       <c r="D17">
-        <v>0.0003</v>
+        <v>0.00076</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="F17">
-        <v>0.00075</v>
+        <v>0.00045</v>
       </c>
       <c r="G17">
-        <v>0.008109999999999999</v>
+        <v>0.00526</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="J17">
-        <v>0.00015</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="K17">
-        <v>0.00015</v>
+        <v>0.00027</v>
       </c>
       <c r="L17">
-        <v>0.0042</v>
+        <v>0.00341</v>
       </c>
       <c r="M17">
-        <v>0.0009</v>
+        <v>0.00188</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.00075</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
       <c r="Q17">
-        <v>0.0005999999999999999</v>
+        <v>0.00051</v>
       </c>
       <c r="R17">
-        <v>0.0027</v>
+        <v>0.00313</v>
       </c>
       <c r="S17">
-        <v>0.00601</v>
+        <v>0.00539</v>
       </c>
       <c r="T17">
-        <v>0.0005999999999999999</v>
+        <v>0.00116</v>
       </c>
       <c r="U17">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="V17">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="X17">
-        <v>0.0027</v>
+        <v>0.00212</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="Z17">
-        <v>0.00015</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AA17">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.00034</v>
       </c>
       <c r="AC17">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0.0003</v>
+        <v>6E-05</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AH17">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2246,103 +2246,103 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01231</v>
+        <v>0.01257</v>
       </c>
       <c r="C18">
-        <v>0.00015</v>
+        <v>0.00018</v>
       </c>
       <c r="D18">
-        <v>0.00045</v>
+        <v>0.00039</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="F18">
-        <v>0.0005999999999999999</v>
+        <v>0.00065</v>
       </c>
       <c r="G18">
-        <v>0.008710000000000001</v>
+        <v>0.01155</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="J18">
         <v>0.00015</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="L18">
-        <v>0.00526</v>
+        <v>0.00825</v>
       </c>
       <c r="M18">
-        <v>0.00436</v>
+        <v>0.00388</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0012</v>
+        <v>0.00059</v>
       </c>
       <c r="P18">
+        <v>3E-05</v>
+      </c>
+      <c r="Q18">
         <v>0.00015</v>
       </c>
-      <c r="Q18">
-        <v>0.0003</v>
-      </c>
       <c r="R18">
-        <v>0.00451</v>
+        <v>0.0033</v>
       </c>
       <c r="S18">
-        <v>0.01291</v>
+        <v>0.01176</v>
       </c>
       <c r="T18">
-        <v>0.00075</v>
+        <v>0.00046</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="V18">
-        <v>0.00105</v>
+        <v>0.00077</v>
       </c>
       <c r="W18">
-        <v>0.0012</v>
+        <v>0.00134</v>
       </c>
       <c r="X18">
-        <v>0.003</v>
+        <v>0.00471</v>
       </c>
       <c r="Y18">
-        <v>0.00045</v>
+        <v>6E-05</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AA18">
-        <v>0.0003</v>
+        <v>0.00034</v>
       </c>
       <c r="AB18">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AD18">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.003</v>
+        <v>0.00118</v>
       </c>
       <c r="AG18">
-        <v>0.0003</v>
+        <v>0.00018</v>
       </c>
       <c r="AH18">
-        <v>0.00165</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2350,91 +2350,91 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.00021</v>
       </c>
       <c r="C19">
-        <v>0.00571</v>
+        <v>0.0056</v>
       </c>
       <c r="D19">
-        <v>0.01066</v>
+        <v>0.00949</v>
       </c>
       <c r="E19">
-        <v>0.00721</v>
+        <v>0.00502</v>
       </c>
       <c r="F19">
-        <v>0.00646</v>
+        <v>0.00673</v>
       </c>
       <c r="G19">
-        <v>0.0018</v>
+        <v>0.00285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0009</v>
+        <v>0.00042</v>
       </c>
       <c r="J19">
-        <v>0.00285</v>
+        <v>0.00248</v>
       </c>
       <c r="K19">
-        <v>0.0012</v>
+        <v>0.00244</v>
       </c>
       <c r="L19">
-        <v>0.00165</v>
+        <v>0.00223</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.00571</v>
+        <v>0.00407</v>
       </c>
       <c r="O19">
-        <v>0.00616</v>
+        <v>0.00385</v>
       </c>
       <c r="P19">
-        <v>0.00916</v>
+        <v>0.00736</v>
       </c>
       <c r="Q19">
-        <v>0.00691</v>
+        <v>0.00671</v>
       </c>
       <c r="R19">
-        <v>0.00796</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="S19">
-        <v>0.0012</v>
+        <v>0.00197</v>
       </c>
       <c r="T19">
-        <v>0.0039</v>
+        <v>0.00436</v>
       </c>
       <c r="U19">
-        <v>0.00691</v>
+        <v>0.00714</v>
       </c>
       <c r="V19">
-        <v>0.00766</v>
+        <v>0.009310000000000001</v>
       </c>
       <c r="W19">
-        <v>0.00691</v>
+        <v>0.00873</v>
       </c>
       <c r="X19">
-        <v>0.00075</v>
+        <v>0.00082</v>
       </c>
       <c r="Y19">
-        <v>0.00195</v>
+        <v>0.00041</v>
       </c>
       <c r="Z19">
-        <v>0.00165</v>
+        <v>0.00104</v>
       </c>
       <c r="AA19">
-        <v>0.00045</v>
+        <v>0.00018</v>
       </c>
       <c r="AB19">
-        <v>0.00315</v>
+        <v>0.00276</v>
       </c>
       <c r="AC19">
-        <v>0.00045</v>
+        <v>0.00116</v>
       </c>
       <c r="AD19">
-        <v>0.0005999999999999999</v>
+        <v>0.00034</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>0.00026</v>
       </c>
       <c r="AH19">
-        <v>0.0015</v>
+        <v>0.00166</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2454,13 +2454,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0018</v>
+        <v>0.00209</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0033</v>
+        <v>0.0027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2478,49 +2478,49 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="L20">
-        <v>0.00105</v>
+        <v>0.00153</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.00047</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.00075</v>
+        <v>0.00016</v>
       </c>
       <c r="P20">
-        <v>0.0009</v>
+        <v>0.00139</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="R20">
-        <v>0.00015</v>
+        <v>0.00032</v>
       </c>
       <c r="S20">
-        <v>0.01006</v>
+        <v>0.01231</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="U20">
-        <v>0.00631</v>
+        <v>0.00831</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="W20">
-        <v>0.00015</v>
+        <v>0.00016</v>
       </c>
       <c r="X20">
-        <v>0.0009</v>
+        <v>0.00106</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2544,13 +2544,13 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AH20">
-        <v>0.00105</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2558,103 +2558,103 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.00781</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="D21">
-        <v>0.00075</v>
+        <v>0.00058</v>
       </c>
       <c r="E21">
+        <v>0.00032</v>
+      </c>
+      <c r="F21">
+        <v>0.00022</v>
+      </c>
+      <c r="G21">
+        <v>0.00682</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>4E-05</v>
+      </c>
+      <c r="J21">
+        <v>0.00058</v>
+      </c>
+      <c r="K21">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="L21">
+        <v>0.00504</v>
+      </c>
+      <c r="M21">
+        <v>0.00184</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.0005</v>
+      </c>
+      <c r="P21">
+        <v>0.00014</v>
+      </c>
+      <c r="Q21">
+        <v>0.00076</v>
+      </c>
+      <c r="R21">
+        <v>0.0015</v>
+      </c>
+      <c r="S21">
+        <v>0.00847</v>
+      </c>
+      <c r="T21">
+        <v>0.00033</v>
+      </c>
+      <c r="U21">
         <v>0.00015</v>
       </c>
-      <c r="F21">
-        <v>0.00045</v>
-      </c>
-      <c r="G21">
-        <v>0.00721</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="V21">
+        <v>0.00033</v>
+      </c>
+      <c r="W21">
+        <v>0.00131</v>
+      </c>
+      <c r="X21">
+        <v>0.00337</v>
+      </c>
+      <c r="Y21">
+        <v>1E-05</v>
+      </c>
+      <c r="Z21">
+        <v>0.0002</v>
+      </c>
+      <c r="AA21">
+        <v>6E-05</v>
+      </c>
+      <c r="AB21">
+        <v>0.00017</v>
+      </c>
+      <c r="AC21">
+        <v>0.00028</v>
+      </c>
+      <c r="AD21">
+        <v>3E-05</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.00091</v>
+      </c>
+      <c r="AG21">
         <v>0.00015</v>
       </c>
-      <c r="J21">
-        <v>0.0003</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.00631</v>
-      </c>
-      <c r="M21">
-        <v>0.00165</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0.00105</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0.0003</v>
-      </c>
-      <c r="R21">
-        <v>0.00075</v>
-      </c>
-      <c r="S21">
-        <v>0.00661</v>
-      </c>
-      <c r="T21">
-        <v>0.00015</v>
-      </c>
-      <c r="U21">
-        <v>0.00135</v>
-      </c>
-      <c r="V21">
-        <v>0.00195</v>
-      </c>
-      <c r="W21">
-        <v>0.00105</v>
-      </c>
-      <c r="X21">
-        <v>0.00526</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0.0003</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0.00135</v>
-      </c>
-      <c r="AG21">
-        <v>0.0003</v>
-      </c>
       <c r="AH21">
-        <v>0.0015</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2662,103 +2662,103 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0018</v>
+        <v>0.00136</v>
       </c>
       <c r="C22">
-        <v>0.0005999999999999999</v>
+        <v>0.00022</v>
       </c>
       <c r="D22">
-        <v>0.00135</v>
+        <v>0.00184</v>
       </c>
       <c r="E22">
-        <v>0.00015</v>
+        <v>0.0001</v>
       </c>
       <c r="F22">
-        <v>0.00075</v>
+        <v>0.0005</v>
       </c>
       <c r="G22">
-        <v>0.0042</v>
+        <v>0.00379</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00024</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="L22">
-        <v>0.0027</v>
+        <v>0.00176</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.00033</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.0033</v>
+        <v>0.00382</v>
       </c>
       <c r="P22">
-        <v>0.00345</v>
+        <v>0.00359</v>
       </c>
       <c r="Q22">
-        <v>0.0021</v>
+        <v>0.00107</v>
       </c>
       <c r="R22">
-        <v>0.0012</v>
+        <v>0.00167</v>
       </c>
       <c r="S22">
-        <v>0.00255</v>
+        <v>0.00325</v>
       </c>
       <c r="T22">
-        <v>0.0018</v>
+        <v>0.0025</v>
       </c>
       <c r="U22">
-        <v>0.00045</v>
+        <v>0.00042</v>
       </c>
       <c r="V22">
-        <v>0.00075</v>
+        <v>0.00091</v>
       </c>
       <c r="W22">
-        <v>0.00976</v>
+        <v>0.01307</v>
       </c>
       <c r="X22">
-        <v>0.0003</v>
+        <v>0.00102</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="Z22">
         <v>0.0003</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AB22">
-        <v>0.0003</v>
+        <v>0.00051</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="AF22">
-        <v>0.00255</v>
+        <v>0.00393</v>
       </c>
       <c r="AG22">
-        <v>0.00075</v>
+        <v>0.00025</v>
       </c>
       <c r="AH22">
-        <v>0.00436</v>
+        <v>0.00622</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2766,103 +2766,103 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.00751</v>
+        <v>0.00741</v>
       </c>
       <c r="C23">
-        <v>0.00105</v>
+        <v>0.00028</v>
       </c>
       <c r="D23">
-        <v>0.0027</v>
+        <v>0.00316</v>
       </c>
       <c r="E23">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="F23">
-        <v>0.0005999999999999999</v>
+        <v>0.00043</v>
       </c>
       <c r="G23">
-        <v>0.00481</v>
+        <v>0.00631</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="J23">
-        <v>0.00015</v>
+        <v>0.00012</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.00022</v>
       </c>
       <c r="L23">
-        <v>0.00345</v>
+        <v>0.00499</v>
       </c>
       <c r="M23">
-        <v>0.0018</v>
+        <v>0.00217</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.00165</v>
+        <v>0.00133</v>
       </c>
       <c r="P23">
-        <v>0.0003</v>
+        <v>0.00039</v>
       </c>
       <c r="Q23">
-        <v>0.00075</v>
+        <v>0.00042</v>
       </c>
       <c r="R23">
-        <v>0.0018</v>
+        <v>0.00203</v>
       </c>
       <c r="S23">
-        <v>0.01322</v>
+        <v>0.01469</v>
       </c>
       <c r="T23">
-        <v>0.0003</v>
+        <v>0.00085</v>
       </c>
       <c r="U23">
-        <v>0.003</v>
+        <v>0.00338</v>
       </c>
       <c r="V23">
-        <v>0.00075</v>
+        <v>0.00232</v>
       </c>
       <c r="W23">
         <v>0.00045</v>
       </c>
       <c r="X23">
-        <v>0.0018</v>
+        <v>0.00225</v>
       </c>
       <c r="Y23">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AA23">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="AB23">
-        <v>0.0003</v>
+        <v>0.00032</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AF23">
-        <v>0.00556</v>
+        <v>0.0072</v>
       </c>
       <c r="AG23">
-        <v>0.0005999999999999999</v>
+        <v>0.00016</v>
       </c>
       <c r="AH23">
-        <v>0.00075</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -2870,88 +2870,88 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.00045</v>
+        <v>0.00022</v>
       </c>
       <c r="C24">
-        <v>0.0024</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="D24">
-        <v>0.00105</v>
+        <v>0.00156</v>
       </c>
       <c r="E24">
-        <v>0.0015</v>
+        <v>0.00111</v>
       </c>
       <c r="F24">
-        <v>0.0015</v>
+        <v>0.00251</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.00032</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.00045</v>
+        <v>0.0001</v>
       </c>
       <c r="J24">
-        <v>0.0015</v>
+        <v>0.00182</v>
       </c>
       <c r="K24">
-        <v>0.00045</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="L24">
-        <v>0.0003</v>
+        <v>0.00066</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="O24">
-        <v>0.0018</v>
+        <v>0.00143</v>
       </c>
       <c r="P24">
-        <v>0.0015</v>
+        <v>0.00304</v>
       </c>
       <c r="Q24">
-        <v>0.0027</v>
+        <v>0.00183</v>
       </c>
       <c r="R24">
-        <v>0.00105</v>
+        <v>0.00134</v>
       </c>
       <c r="S24">
-        <v>0.00135</v>
+        <v>0.00039</v>
       </c>
       <c r="T24">
-        <v>0.00135</v>
+        <v>0.00161</v>
       </c>
       <c r="U24">
-        <v>0.00045</v>
+        <v>0.00085</v>
       </c>
       <c r="V24">
-        <v>0.00165</v>
+        <v>0.00232</v>
       </c>
       <c r="W24">
-        <v>0.0033</v>
+        <v>0.00267</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Z24">
-        <v>0.0009</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AB24">
-        <v>0.0005999999999999999</v>
+        <v>0.00154</v>
       </c>
       <c r="AC24">
-        <v>0.00015</v>
+        <v>0.00073</v>
       </c>
       <c r="AD24">
         <v>0.0003</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.0012</v>
+        <v>0.00118</v>
       </c>
       <c r="AH24">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00045</v>
+        <v>0.0002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0018</v>
+        <v>0.00039</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.0003</v>
+        <v>0.00011</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3025,25 +3025,25 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0.00034</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0.0001</v>
+      </c>
+      <c r="V25">
+        <v>1E-05</v>
+      </c>
+      <c r="W25">
+        <v>4E-05</v>
+      </c>
+      <c r="X25">
         <v>0.00015</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0.0003</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0.00015</v>
-      </c>
-      <c r="X25">
-        <v>0.0003</v>
-      </c>
       <c r="Y25">
-        <v>0.00165</v>
+        <v>2E-05</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AG25">
         <v>0</v>
@@ -3078,37 +3078,37 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.00135</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D26">
-        <v>0.0005999999999999999</v>
+        <v>0.00071</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="F26">
-        <v>0.00015</v>
+        <v>0.00019</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="J26">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="L26">
-        <v>0.00105</v>
+        <v>0.00042</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3117,49 +3117,49 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0.00045</v>
+        <v>0.00021</v>
       </c>
       <c r="P26">
-        <v>0.00015</v>
+        <v>0.00025</v>
       </c>
       <c r="Q26">
-        <v>0.0003</v>
+        <v>0.00025</v>
       </c>
       <c r="R26">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="S26">
-        <v>0.0033</v>
+        <v>0.00262</v>
       </c>
       <c r="T26">
-        <v>0.0005999999999999999</v>
+        <v>0.00048</v>
       </c>
       <c r="U26">
-        <v>0.00045</v>
+        <v>0.00042</v>
       </c>
       <c r="V26">
-        <v>0.0003</v>
+        <v>0.00038</v>
       </c>
       <c r="W26">
-        <v>0.0003</v>
+        <v>0.00022</v>
       </c>
       <c r="X26">
-        <v>0.00045</v>
+        <v>0.00023</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AC26">
-        <v>0.00015</v>
+        <v>3E-05</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.0003</v>
+        <v>8.000000000000001E-05</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3182,22 +3182,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.00045</v>
+        <v>0.00055</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D27">
-        <v>0.0003</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="G27">
-        <v>0.00165</v>
+        <v>0.0011</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3209,46 +3209,46 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="L27">
-        <v>0.0009</v>
+        <v>0.00083</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="R27">
-        <v>0.00015</v>
+        <v>3E-05</v>
       </c>
       <c r="S27">
-        <v>0.00045</v>
+        <v>0.00022</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="X27">
-        <v>0.00045</v>
+        <v>0.00014</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3286,22 +3286,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.00135</v>
+        <v>0.00202</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="G28">
-        <v>0.00405</v>
+        <v>0.00391</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.00105</v>
+        <v>0.00197</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3325,34 +3325,34 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0.00015</v>
+        <v>0.00052</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="R28">
-        <v>0.00165</v>
+        <v>0.00107</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="W28">
-        <v>0.00285</v>
+        <v>0.00348</v>
       </c>
       <c r="X28">
-        <v>0.00015</v>
+        <v>0.00057</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="AC28">
-        <v>0.00015</v>
+        <v>0.00019</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.00015</v>
+        <v>0.00026</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.00075</v>
+        <v>0.00099</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="G29">
-        <v>0.00135</v>
+        <v>0.00244</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3417,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="L29">
-        <v>0.0015</v>
+        <v>0.00181</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3429,34 +3429,34 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <v>0.00075</v>
+        <v>0.00058</v>
       </c>
       <c r="P29">
-        <v>0.00105</v>
+        <v>0.00065</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="S29">
-        <v>0.00075</v>
+        <v>0.00024</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="U29">
-        <v>0.00045</v>
+        <v>3E-05</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="W29">
         <v>0.00015</v>
       </c>
       <c r="X29">
-        <v>0.00045</v>
+        <v>0.00036</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0.00045</v>
+        <v>0.00077</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.00045</v>
+        <v>0.00051</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.00135</v>
+        <v>0.00163</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.0009</v>
+        <v>0.00098</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.0003</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -3702,37 +3702,37 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="C32">
-        <v>0.00015</v>
+        <v>0.00041</v>
       </c>
       <c r="D32">
-        <v>0.00135</v>
+        <v>0.00137</v>
       </c>
       <c r="E32">
-        <v>0.0003</v>
+        <v>0.00034</v>
       </c>
       <c r="F32">
-        <v>0.0009</v>
+        <v>0.00067</v>
       </c>
       <c r="G32">
-        <v>0.00075</v>
+        <v>0.00066</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J32">
-        <v>0.0003</v>
+        <v>6E-05</v>
       </c>
       <c r="K32">
-        <v>0.0003</v>
+        <v>0.00068</v>
       </c>
       <c r="L32">
-        <v>0.00075</v>
+        <v>0.00091</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3741,52 +3741,52 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0.00225</v>
+        <v>0.00208</v>
       </c>
       <c r="P32">
-        <v>0.00015</v>
+        <v>0.00019</v>
       </c>
       <c r="Q32">
-        <v>0.00075</v>
+        <v>0.00078</v>
       </c>
       <c r="R32">
-        <v>0.0033</v>
+        <v>0.00313</v>
       </c>
       <c r="S32">
-        <v>0.00045</v>
+        <v>0.00084</v>
       </c>
       <c r="T32">
-        <v>0.0009</v>
+        <v>0.00119</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="V32">
-        <v>0.0018</v>
+        <v>0.00263</v>
       </c>
       <c r="W32">
-        <v>0.0005999999999999999</v>
+        <v>0.00066</v>
       </c>
       <c r="X32">
-        <v>0.0003</v>
+        <v>0.00028</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="Z32">
-        <v>0.00015</v>
+        <v>0.00011</v>
       </c>
       <c r="AA32">
-        <v>0.0003</v>
+        <v>0.00025</v>
       </c>
       <c r="AB32">
-        <v>0.0005999999999999999</v>
+        <v>0.00047</v>
       </c>
       <c r="AC32">
-        <v>0.0015</v>
+        <v>0.00065</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>0.0003</v>
+        <v>0.00051</v>
       </c>
       <c r="AH32">
-        <v>0.0005999999999999999</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="33" spans="1:34">
@@ -3806,91 +3806,91 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="C33">
-        <v>0.0003</v>
+        <v>0.00034</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.00029</v>
       </c>
       <c r="E33">
-        <v>0.0003</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F33">
-        <v>0.00045</v>
+        <v>0.00052</v>
       </c>
       <c r="G33">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="O33">
-        <v>0.0003</v>
+        <v>0.00028</v>
       </c>
       <c r="P33">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.00016</v>
       </c>
       <c r="R33">
-        <v>0.0003</v>
+        <v>0.00028</v>
       </c>
       <c r="S33">
-        <v>0.0003</v>
+        <v>0.00018</v>
       </c>
       <c r="T33">
-        <v>0.0003</v>
+        <v>0.00034</v>
       </c>
       <c r="U33">
-        <v>0.00075</v>
+        <v>0.0002</v>
       </c>
       <c r="V33">
-        <v>0.00075</v>
+        <v>0.00053</v>
       </c>
       <c r="W33">
-        <v>0.0005999999999999999</v>
+        <v>0.00083</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AA33">
-        <v>0.00015</v>
+        <v>1E-05</v>
       </c>
       <c r="AB33">
-        <v>0.00045</v>
+        <v>0.00043</v>
       </c>
       <c r="AC33">
-        <v>0.00015</v>
+        <v>4E-05</v>
       </c>
       <c r="AD33">
-        <v>0.00045</v>
+        <v>0.00048</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -3910,91 +3910,91 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.00045</v>
+        <v>0.00023</v>
       </c>
       <c r="C34">
-        <v>0.00075</v>
+        <v>0.00059</v>
       </c>
       <c r="D34">
-        <v>0.0021</v>
+        <v>0.00241</v>
       </c>
       <c r="E34">
-        <v>0.00015</v>
+        <v>0.00036</v>
       </c>
       <c r="F34">
-        <v>0.0018</v>
+        <v>0.00141</v>
       </c>
       <c r="G34">
-        <v>0.00015</v>
+        <v>0.00047</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.00015</v>
+        <v>0.00019</v>
       </c>
       <c r="J34">
-        <v>0.0003</v>
+        <v>0.00036</v>
       </c>
       <c r="K34">
-        <v>0.00045</v>
+        <v>0.00109</v>
       </c>
       <c r="L34">
+        <v>0.00111</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>6E-05</v>
+      </c>
+      <c r="O34">
+        <v>0.00122</v>
+      </c>
+      <c r="P34">
+        <v>0.00132</v>
+      </c>
+      <c r="Q34">
         <v>0.00105</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0.0015</v>
-      </c>
-      <c r="P34">
-        <v>0.0009</v>
-      </c>
-      <c r="Q34">
-        <v>0.00135</v>
-      </c>
       <c r="R34">
-        <v>0.00195</v>
+        <v>0.00287</v>
       </c>
       <c r="S34">
-        <v>0.0012</v>
+        <v>0.00118</v>
       </c>
       <c r="T34">
-        <v>0.00105</v>
+        <v>0.00239</v>
       </c>
       <c r="U34">
-        <v>0.00045</v>
+        <v>0.00055</v>
       </c>
       <c r="V34">
-        <v>0.00165</v>
+        <v>0.00243</v>
       </c>
       <c r="W34">
-        <v>0.0021</v>
+        <v>0.00236</v>
       </c>
       <c r="X34">
-        <v>0.00015</v>
+        <v>0.00057</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="Z34">
-        <v>0.0005999999999999999</v>
+        <v>0.00034</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="AB34">
-        <v>0.00045</v>
+        <v>0.00056</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>0.00012</v>
       </c>
       <c r="AD34">
-        <v>0.0003</v>
+        <v>0.00032</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="AH34">
-        <v>0.0005999999999999999</v>
+        <v>0.00047</v>
       </c>
     </row>
   </sheetData>
